--- a/conda/exp_1/rho.xlsx
+++ b/conda/exp_1/rho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>$c_{cor}$=0</t>
+          <t>$b_1$=0.5</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>$c_{cor}$=0.2</t>
+          <t>$b_1$=1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>$c_{cor}$=0.4</t>
+          <t>$b_1$=1.5</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>$b_1$=2</t>
         </is>
       </c>
     </row>
@@ -455,13 +460,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8027400345267295</v>
+        <v>0.7644998715930141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8027400345267295</v>
+        <v>0.8032147211472658</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8027400345267295</v>
+        <v>0.8621182246877888</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9375508001101223</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +477,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7604585659335484</v>
+        <v>0.7516253286052136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7604585659335484</v>
+        <v>0.760908250129172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7604585659335484</v>
+        <v>0.7872645362537896</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8368937819883806</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +494,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7520713486724988</v>
+        <v>0.7505314158044041</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7520713486724988</v>
+        <v>0.7525160732303242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7520713486724988</v>
+        <v>0.7638015468402386</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7972958764202509</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +511,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7504092190832229</v>
+        <v>0.7504497016422904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7504092190832229</v>
+        <v>0.75085296076908</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7504092190832229</v>
+        <v>0.7554858704375673</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.777895749071903</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +528,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7500809628909986</v>
+        <v>0.7504439320476444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7500809628909986</v>
+        <v>0.7505245104681583</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7500809628909986</v>
+        <v>0.7523784361926991</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7672122084559365</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +545,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7500160363043546</v>
+        <v>0.7504435298704085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7500160363043546</v>
+        <v>0.7504595454882852</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7500160363043546</v>
+        <v>0.7511907939269629</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7609322773691597</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +562,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7500031773233704</v>
+        <v>0.7504435018098888</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7500031773233704</v>
+        <v>0.7504466789033621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7500031773233704</v>
+        <v>0.7507328194957255</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7570980195897355</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +579,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7500006295548624</v>
+        <v>0.7504434998485987</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7500006295548624</v>
+        <v>0.7504441296282746</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7500006295548624</v>
+        <v>0.7505556162593223</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7547025817761466</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +596,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7500001247393433</v>
+        <v>0.7504434997114471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7500001247393433</v>
+        <v>0.7504436245142415</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7500001247393433</v>
+        <v>0.7504869625108355</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7531845122324092</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +613,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7500000247156775</v>
+        <v>0.7504434997018564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7500000247156775</v>
+        <v>0.7504435244314284</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7500000247156775</v>
+        <v>0.7504603507360166</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7522137357590761</v>
       </c>
     </row>
   </sheetData>
